--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H2">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I2">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J2">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N2">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q2">
-        <v>88.24423361734732</v>
+        <v>178.3160900943413</v>
       </c>
       <c r="R2">
-        <v>794.1981025561259</v>
+        <v>1604.844810849072</v>
       </c>
       <c r="S2">
-        <v>0.03750375001189258</v>
+        <v>0.0605608349519702</v>
       </c>
       <c r="T2">
-        <v>0.03750375001189257</v>
+        <v>0.0605608349519702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H3">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I3">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J3">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
         <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q3">
-        <v>25.036810722368</v>
+        <v>50.55273248729599</v>
       </c>
       <c r="R3">
-        <v>225.331296501312</v>
+        <v>454.9745923856639</v>
       </c>
       <c r="S3">
-        <v>0.01064063057647967</v>
+        <v>0.01716903778517398</v>
       </c>
       <c r="T3">
-        <v>0.01064063057647967</v>
+        <v>0.01716903778517398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H4">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I4">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J4">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N4">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q4">
-        <v>47.32766209832133</v>
+        <v>76.90809407685732</v>
       </c>
       <c r="R4">
-        <v>425.948958884892</v>
+        <v>692.1728466917159</v>
       </c>
       <c r="S4">
-        <v>0.02011422996407369</v>
+        <v>0.02612001188112053</v>
       </c>
       <c r="T4">
-        <v>0.02011422996407369</v>
+        <v>0.02612001188112053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H5">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I5">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J5">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N5">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q5">
-        <v>57.62049406119868</v>
+        <v>40.46908413904489</v>
       </c>
       <c r="R5">
-        <v>518.584446550788</v>
+        <v>364.221757251404</v>
       </c>
       <c r="S5">
-        <v>0.02448867780079086</v>
+        <v>0.01374436554718888</v>
       </c>
       <c r="T5">
-        <v>0.02448867780079086</v>
+        <v>0.01374436554718888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H6">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I6">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J6">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N6">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q6">
-        <v>109.8982988013442</v>
+        <v>281.3067751429404</v>
       </c>
       <c r="R6">
-        <v>989.0846892120979</v>
+        <v>2531.760976286464</v>
       </c>
       <c r="S6">
-        <v>0.04670671562348581</v>
+        <v>0.09553918085176336</v>
       </c>
       <c r="T6">
-        <v>0.0467067156234858</v>
+        <v>0.09553918085176336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H7">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I7">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J7">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N7">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q7">
-        <v>75.34108007590488</v>
+        <v>71.12643149341599</v>
       </c>
       <c r="R7">
-        <v>678.0697206831438</v>
+        <v>640.1378834407438</v>
       </c>
       <c r="S7">
-        <v>0.03201991696188586</v>
+        <v>0.02415640717624772</v>
       </c>
       <c r="T7">
-        <v>0.03201991696188584</v>
+        <v>0.02415640717624771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>28.605264</v>
       </c>
       <c r="I8">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J8">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N8">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q8">
-        <v>121.956950704304</v>
+        <v>122.052063207104</v>
       </c>
       <c r="R8">
-        <v>1097.612556338736</v>
+        <v>1098.468568863936</v>
       </c>
       <c r="S8">
-        <v>0.05183163594870615</v>
+        <v>0.04145209134813474</v>
       </c>
       <c r="T8">
-        <v>0.05183163594870615</v>
+        <v>0.04145209134813473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>28.605264</v>
       </c>
       <c r="I9">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J9">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
         <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q9">
         <v>34.601842702848</v>
       </c>
       <c r="R9">
-        <v>311.4165843256321</v>
+        <v>311.416584325632</v>
       </c>
       <c r="S9">
-        <v>0.01470576382708066</v>
+        <v>0.011751696012696</v>
       </c>
       <c r="T9">
-        <v>0.01470576382708065</v>
+        <v>0.011751696012696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>28.605264</v>
       </c>
       <c r="I10">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J10">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N10">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q10">
-        <v>65.408663171168</v>
+        <v>52.641304295312</v>
       </c>
       <c r="R10">
-        <v>588.677968540512</v>
+        <v>473.771738657808</v>
       </c>
       <c r="S10">
-        <v>0.02779864532362302</v>
+        <v>0.01787837171282839</v>
       </c>
       <c r="T10">
-        <v>0.02779864532362302</v>
+        <v>0.01787837171282838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>28.605264</v>
       </c>
       <c r="I11">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J11">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N11">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q11">
-        <v>79.63375583555202</v>
+        <v>27.69988514586134</v>
       </c>
       <c r="R11">
-        <v>716.7038025199681</v>
+        <v>249.298966312752</v>
       </c>
       <c r="S11">
-        <v>0.03384430176271061</v>
+        <v>0.0094076096644981</v>
       </c>
       <c r="T11">
-        <v>0.0338443017627106</v>
+        <v>0.009407609664498098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>28.605264</v>
       </c>
       <c r="I12">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J12">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N12">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q12">
-        <v>151.8837079771253</v>
+        <v>192.5461257151146</v>
       </c>
       <c r="R12">
-        <v>1366.953371794128</v>
+        <v>1732.915131436032</v>
       </c>
       <c r="S12">
-        <v>0.06455049107858787</v>
+        <v>0.06539372938193649</v>
       </c>
       <c r="T12">
-        <v>0.06455049107858787</v>
+        <v>0.06539372938193648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>28.605264</v>
       </c>
       <c r="I13">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J13">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N13">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q13">
-        <v>104.1242924571093</v>
+        <v>48.683928117408</v>
       </c>
       <c r="R13">
-        <v>937.1186321139839</v>
+        <v>438.155353056672</v>
       </c>
       <c r="S13">
-        <v>0.04425276615138458</v>
+        <v>0.01653434266067664</v>
       </c>
       <c r="T13">
-        <v>0.04425276615138456</v>
+        <v>0.01653434266067664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H14">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I14">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J14">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N14">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q14">
-        <v>101.5200109160293</v>
+        <v>138.8026059906747</v>
       </c>
       <c r="R14">
-        <v>913.6800982442639</v>
+        <v>1249.223453916072</v>
       </c>
       <c r="S14">
-        <v>0.04314594795065343</v>
+        <v>0.04714101631466489</v>
       </c>
       <c r="T14">
-        <v>0.04314594795065343</v>
+        <v>0.04714101631466489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H15">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I15">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J15">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
         <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q15">
-        <v>28.803437841152</v>
+        <v>39.350632943296</v>
       </c>
       <c r="R15">
-        <v>259.230940570368</v>
+        <v>354.155696489664</v>
       </c>
       <c r="S15">
-        <v>0.01224144499868256</v>
+        <v>0.01336451009930559</v>
       </c>
       <c r="T15">
-        <v>0.01224144499868256</v>
+        <v>0.01336451009930559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H16">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I16">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J16">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N16">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q16">
-        <v>54.44780441616533</v>
+        <v>59.86584763044068</v>
       </c>
       <c r="R16">
-        <v>490.030239745488</v>
+        <v>538.7926286739661</v>
       </c>
       <c r="S16">
-        <v>0.02314028647327799</v>
+        <v>0.02033201667717571</v>
       </c>
       <c r="T16">
-        <v>0.02314028647327799</v>
+        <v>0.02033201667717571</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H17">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I17">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J17">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N17">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q17">
-        <v>66.28912673711469</v>
+        <v>31.50144407935045</v>
       </c>
       <c r="R17">
-        <v>596.602140634032</v>
+        <v>283.512996714154</v>
       </c>
       <c r="S17">
-        <v>0.0281728418475005</v>
+        <v>0.01069871908154183</v>
       </c>
       <c r="T17">
-        <v>0.02817284184750049</v>
+        <v>0.01069871908154183</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H18">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I18">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J18">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N18">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q18">
-        <v>126.4317909127635</v>
+        <v>218.9713415767182</v>
       </c>
       <c r="R18">
-        <v>1137.886118214872</v>
+        <v>1970.742074190464</v>
       </c>
       <c r="S18">
-        <v>0.05373344053855577</v>
+        <v>0.07436842782624442</v>
       </c>
       <c r="T18">
-        <v>0.05373344053855576</v>
+        <v>0.07436842782624442</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H19">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I19">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J19">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N19">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q19">
-        <v>86.67566092644621</v>
+        <v>55.365357331916</v>
       </c>
       <c r="R19">
-        <v>780.0809483380159</v>
+        <v>498.288215987244</v>
       </c>
       <c r="S19">
-        <v>0.03683710749414883</v>
+        <v>0.01880353178258377</v>
       </c>
       <c r="T19">
-        <v>0.03683710749414881</v>
+        <v>0.01880353178258377</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H20">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I20">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J20">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N20">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q20">
-        <v>66.97472841965933</v>
+        <v>108.9840282317453</v>
       </c>
       <c r="R20">
-        <v>602.772555776934</v>
+        <v>980.856254085708</v>
       </c>
       <c r="S20">
-        <v>0.02846422217974278</v>
+        <v>0.03701384290476342</v>
       </c>
       <c r="T20">
-        <v>0.02846422217974278</v>
+        <v>0.03701384290476342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H21">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I21">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J21">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
         <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q21">
-        <v>19.002188923712</v>
+        <v>30.897045923744</v>
       </c>
       <c r="R21">
-        <v>171.019700313408</v>
+        <v>278.0734133136959</v>
       </c>
       <c r="S21">
-        <v>0.008075919681776844</v>
+        <v>0.01049344956869197</v>
       </c>
       <c r="T21">
-        <v>0.008075919681776844</v>
+        <v>0.01049344956869197</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H22">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I22">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J22">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N22">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q22">
-        <v>35.92027700662533</v>
+        <v>47.00503410369434</v>
       </c>
       <c r="R22">
-        <v>323.282493059628</v>
+        <v>423.045306933249</v>
       </c>
       <c r="S22">
-        <v>0.0152660976699738</v>
+        <v>0.01596414608888903</v>
       </c>
       <c r="T22">
-        <v>0.0152660976699738</v>
+        <v>0.01596414608888903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H23">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I23">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J23">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N23">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q23">
-        <v>43.73222796505468</v>
+        <v>24.73407647054789</v>
       </c>
       <c r="R23">
-        <v>393.5900516854921</v>
+        <v>222.606688234931</v>
       </c>
       <c r="S23">
-        <v>0.01858617246512171</v>
+        <v>0.008400343020249943</v>
       </c>
       <c r="T23">
-        <v>0.01858617246512171</v>
+        <v>0.008400343020249943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H24">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I24">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J24">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N24">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q24">
-        <v>83.40951486892023</v>
+        <v>171.9303373449884</v>
       </c>
       <c r="R24">
-        <v>750.6856338202821</v>
+        <v>1547.373036104896</v>
       </c>
       <c r="S24">
-        <v>0.03544899724351253</v>
+        <v>0.05839206533564983</v>
       </c>
       <c r="T24">
-        <v>0.03544899724351253</v>
+        <v>0.05839206533564983</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H25">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I25">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J25">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N25">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q25">
-        <v>57.18162162083289</v>
+        <v>43.471371617674</v>
       </c>
       <c r="R25">
-        <v>514.6345945874959</v>
+        <v>391.2423445590659</v>
       </c>
       <c r="S25">
-        <v>0.02430215725870128</v>
+        <v>0.01476402135264888</v>
       </c>
       <c r="T25">
-        <v>0.02430215725870127</v>
+        <v>0.01476402135264888</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H26">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I26">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J26">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N26">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q26">
-        <v>79.33955688485968</v>
+        <v>82.09171181761866</v>
       </c>
       <c r="R26">
-        <v>714.0560119637371</v>
+        <v>738.825406358568</v>
       </c>
       <c r="S26">
-        <v>0.03371926737294672</v>
+        <v>0.02788050482534258</v>
       </c>
       <c r="T26">
-        <v>0.03371926737294672</v>
+        <v>0.02788050482534258</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H27">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I27">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J27">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
         <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q27">
-        <v>22.51036002121601</v>
+        <v>23.273055980224</v>
       </c>
       <c r="R27">
-        <v>202.593240190944</v>
+        <v>209.457503822016</v>
       </c>
       <c r="S27">
-        <v>0.009566890439257281</v>
+        <v>0.007904142028353253</v>
       </c>
       <c r="T27">
-        <v>0.00956689043925728</v>
+        <v>0.007904142028353253</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H28">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I28">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J28">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N28">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q28">
-        <v>42.55185393257267</v>
+        <v>35.40632307527267</v>
       </c>
       <c r="R28">
-        <v>382.966685393154</v>
+        <v>318.656907677454</v>
       </c>
       <c r="S28">
-        <v>0.01808451416043638</v>
+        <v>0.01202491870970968</v>
       </c>
       <c r="T28">
-        <v>0.01808451416043638</v>
+        <v>0.01202491870970968</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H29">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I29">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J29">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N29">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q29">
-        <v>51.80604192366735</v>
+        <v>18.63082793542511</v>
       </c>
       <c r="R29">
-        <v>466.2543773130061</v>
+        <v>167.677451418826</v>
       </c>
       <c r="S29">
-        <v>0.02201753888912353</v>
+        <v>0.006327519266595008</v>
       </c>
       <c r="T29">
-        <v>0.02201753888912353</v>
+        <v>0.006327519266595008</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H30">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I30">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J30">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N30">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q30">
-        <v>98.80852234615013</v>
+        <v>129.5057260685795</v>
       </c>
       <c r="R30">
-        <v>889.2767011153511</v>
+        <v>1165.551534617216</v>
       </c>
       <c r="S30">
-        <v>0.04199356682254692</v>
+        <v>0.04398355133081285</v>
       </c>
       <c r="T30">
-        <v>0.04199356682254692</v>
+        <v>0.04398355133081285</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H31">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I31">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J31">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N31">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q31">
-        <v>67.73845341973644</v>
+        <v>32.744608261004</v>
       </c>
       <c r="R31">
-        <v>609.646080777628</v>
+        <v>294.7014743490359</v>
       </c>
       <c r="S31">
-        <v>0.02878880487831238</v>
+        <v>0.01112093034011916</v>
       </c>
       <c r="T31">
-        <v>0.02878880487831237</v>
+        <v>0.01112093034011916</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H32">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I32">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J32">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N32">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O32">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P32">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q32">
-        <v>56.58641143017066</v>
+        <v>121.2230597930227</v>
       </c>
       <c r="R32">
-        <v>509.277702871536</v>
+        <v>1091.007538137204</v>
       </c>
       <c r="S32">
-        <v>0.02404919326003453</v>
+        <v>0.04117053998107505</v>
       </c>
       <c r="T32">
-        <v>0.02404919326003452</v>
+        <v>0.04117053998107505</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H33">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I33">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J33">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N33">
         <v>10.886688</v>
       </c>
       <c r="O33">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P33">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q33">
-        <v>16.054797173248</v>
+        <v>34.366819672672</v>
       </c>
       <c r="R33">
-        <v>144.493174559232</v>
+        <v>309.301377054048</v>
       </c>
       <c r="S33">
-        <v>0.006823279833649856</v>
+        <v>0.01167187600916816</v>
       </c>
       <c r="T33">
-        <v>0.006823279833649855</v>
+        <v>0.01167187600916816</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H34">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I34">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J34">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N34">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O34">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P34">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q34">
-        <v>30.34875424423466</v>
+        <v>52.28375342860967</v>
       </c>
       <c r="R34">
-        <v>273.138788198112</v>
+        <v>470.5537808574871</v>
       </c>
       <c r="S34">
-        <v>0.01289820360708976</v>
+        <v>0.01775693803281758</v>
       </c>
       <c r="T34">
-        <v>0.01289820360708976</v>
+        <v>0.01775693803281758</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H35">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I35">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J35">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N35">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O35">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P35">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q35">
-        <v>36.94900901848534</v>
+        <v>27.51174167042812</v>
       </c>
       <c r="R35">
-        <v>332.541081166368</v>
+        <v>247.6056750338531</v>
       </c>
       <c r="S35">
-        <v>0.01570330820057151</v>
+        <v>0.009343711190967342</v>
       </c>
       <c r="T35">
-        <v>0.01570330820057151</v>
+        <v>0.009343711190967342</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H36">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I36">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J36">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N36">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O36">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P36">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q36">
-        <v>70.47203082316977</v>
+        <v>191.2383117266275</v>
       </c>
       <c r="R36">
-        <v>634.248277408528</v>
+        <v>1721.144805539648</v>
       </c>
       <c r="S36">
-        <v>0.02995057374834502</v>
+        <v>0.0649495613482905</v>
       </c>
       <c r="T36">
-        <v>0.02995057374834502</v>
+        <v>0.0649495613482905</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H37">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I37">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J37">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N37">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O37">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P37">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q37">
-        <v>48.3122939596871</v>
+        <v>48.35325658626201</v>
       </c>
       <c r="R37">
-        <v>434.8106456371839</v>
+        <v>435.179309276358</v>
       </c>
       <c r="S37">
-        <v>0.02053269795533683</v>
+        <v>0.01642203791010448</v>
       </c>
       <c r="T37">
-        <v>0.02053269795533683</v>
+        <v>0.01642203791010448</v>
       </c>
     </row>
   </sheetData>
